--- a/_metodos-estadisticos/guiones/Bacterias_en_carne.xlsx
+++ b/_metodos-estadisticos/guiones/Bacterias_en_carne.xlsx
@@ -5,22 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Bacterias_en_carne" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Empaque</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>logNcm2</t>
+  </si>
+  <si>
+    <t>Asignación</t>
   </si>
   <si>
     <t>plástico</t>
@@ -136,15 +139,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -157,10 +163,13 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -168,10 +177,13 @@
       <c r="C2" s="0" t="n">
         <v>7.66</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -179,10 +191,13 @@
       <c r="C3" s="0" t="n">
         <v>5.26</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -190,21 +205,27 @@
       <c r="C4" s="0" t="n">
         <v>7.41</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3.51</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -212,10 +233,13 @@
       <c r="C6" s="0" t="n">
         <v>6.98</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -223,10 +247,13 @@
       <c r="C7" s="0" t="n">
         <v>5.44</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
@@ -234,21 +261,27 @@
       <c r="C8" s="0" t="n">
         <v>7.33</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2.91</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -256,10 +289,13 @@
       <c r="C10" s="0" t="n">
         <v>7.8</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -267,10 +303,13 @@
       <c r="C11" s="0" t="n">
         <v>5.8</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -278,10 +317,13 @@
       <c r="C12" s="0" t="n">
         <v>7.04</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -289,14 +331,17 @@
       <c r="C13" s="0" t="n">
         <v>3.66</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>